--- a/biology/Médecine/Abdallah_Kanfaoui/Abdallah_Kanfaoui.xlsx
+++ b/biology/Médecine/Abdallah_Kanfaoui/Abdallah_Kanfaoui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abdallah Kanfaoui, né le 21 mai 1968 à Bruxelles est un homme politique belge bruxellois, membre du Mouvement réformateur (MR).
 Il est médecin-Chef de l' Hôpital Universitaire des Enfants Reine Fabiola à Bruxelles; pédiatre, il devient en 2006 chef de service de Pédiatrie de la Clinique Saint-Étienne à Bruxelles; diplômé en Executive Master de la Business School Solvay de Bruxelles; président de la Commission Contrats et Sociétés du Conseil Provincial de l'Ordre des médecins ; administrateur du syndicat des Médecins ABSYM; siège au sein de plusieurs Commissions de l' Institut national d'assurance maladie invalidité (INAMI) : Comité Directeur de l’Accréditation ; Service d’évaluation et de contrôle des Médecins ; Commissions de Remboursement des Médicaments ; Membre du Comité d’éthique et de déontologie de l’Association générale de l'industrie du médicament (Pharma.be).
@@ -512,10 +524,12 @@
           <t>Fonctions politiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2012-2018 : Conseiller communal de Schaerbeek.
-Candidat aux élections communales à Molenbeek-Saint-Jean en 2018 (non élu)[1]
+Candidat aux élections communales à Molenbeek-Saint-Jean en 2018 (non élu)
 2014-2019 : Membre du Parlement de la Région de Bruxelles-Capitale</t>
         </is>
       </c>
